--- a/StructureDefinition-lmdi-medication.xlsx
+++ b/StructureDefinition-lmdi-medication.xlsx
@@ -10025,7 +10025,7 @@
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>87</v>
@@ -10943,7 +10943,7 @@
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>87</v>
@@ -11173,7 +11173,7 @@
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>87</v>
@@ -11293,7 +11293,7 @@
         <v>87</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I85" t="s" s="2">
         <v>77</v>

--- a/StructureDefinition-lmdi-medication.xlsx
+++ b/StructureDefinition-lmdi-medication.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3694" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3694" uniqueCount="411">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.4</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-26</t>
+    <t>2025-03-10</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -500,7 +500,7 @@
 </t>
   </si>
   <si>
-    <t>Codes that identify this medication</t>
+    <t>Identifikator fra FEST eller LokalLegemiddelkatalog. Hvis ikke fylt ut, skal ingredient ha verdi. Hvis LokaltLegemiddel er fylt ut bør ingredient ha verdi.</t>
   </si>
   <si>
     <t>A code (or set of codes) that specify this medication, or a textual description if no code is available. Usage note: This could be a standard medication code such as a code from RxNorm, SNOMED CT, IDMP etc. It could also be a national or local formulary code, optionally with translations to other code systems.</t>
@@ -688,7 +688,7 @@
     <t>Medication.code.coding.code</t>
   </si>
   <si>
-    <t>Symbol in syntax defined by the system</t>
+    <t>Identifikator fra FEST</t>
   </si>
   <si>
     <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
@@ -903,7 +903,13 @@
     <t>Medication.code.coding:LokaltLegemiddel.code</t>
   </si>
   <si>
+    <t>Identifikator fra lokal legemiddelkatalog/legemiddelregister</t>
+  </si>
+  <si>
     <t>Medication.code.coding:LokaltLegemiddel.display</t>
+  </si>
+  <si>
+    <t>Beskrivelse (f.eks. varenavn) for legemiddel fra lokal legemiddelkatalog/legemiddelregister</t>
   </si>
   <si>
     <t>Medication.code.coding:LokaltLegemiddel.userSelected</t>
@@ -1041,6 +1047,9 @@
     <t>Medication.form.coding.code</t>
   </si>
   <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
     <t>Medication.form.coding.display</t>
   </si>
   <si>
@@ -1074,7 +1083,13 @@
     <t>Medication.form.coding:7448.code</t>
   </si>
   <si>
+    <t>Verdi fra kodeverket</t>
+  </si>
+  <si>
     <t>Medication.form.coding:7448.display</t>
+  </si>
+  <si>
+    <t>Beskrivelse av koden (navn) fra kodeverket</t>
   </si>
   <si>
     <t>Medication.form.coding:7448.userSelected</t>
@@ -1177,8 +1192,8 @@
     <t>Medication.ingredient.item[x]</t>
   </si>
   <si>
-    <t>CodeableConcept
-Reference(Substance|Medication)</t>
+    <t>CodeableConcept(Substance|http://hl7.no/fhir/ig/lmdi/StructureDefinition/lmdi-medication)
+Reference(Substance|http://hl7.no/fhir/ig/lmdi/StructureDefinition/lmdi-medication)</t>
   </si>
   <si>
     <t>The actual ingredient or content</t>
@@ -1623,7 +1638,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="54.390625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="84.3046875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2927,7 +2942,7 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>87</v>
@@ -3955,7 +3970,7 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>87</v>
@@ -4873,7 +4888,7 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>87</v>
@@ -5791,7 +5806,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>87</v>
@@ -6709,7 +6724,7 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>87</v>
@@ -7741,7 +7756,7 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>87</v>
@@ -7759,7 +7774,7 @@
         <v>107</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>213</v>
+        <v>284</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>214</v>
@@ -7844,7 +7859,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>220</v>
@@ -7855,7 +7870,7 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>87</v>
@@ -7873,7 +7888,7 @@
         <v>164</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>221</v>
+        <v>286</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>222</v>
@@ -7958,7 +7973,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>228</v>
@@ -8074,10 +8089,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8088,7 +8103,7 @@
         <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>77</v>
@@ -8103,16 +8118,16 @@
         <v>164</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>77</v>
@@ -8161,7 +8176,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8179,21 +8194,21 @@
         <v>77</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8219,13 +8234,13 @@
         <v>107</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8251,13 +8266,13 @@
         <v>77</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>77</v>
@@ -8275,7 +8290,7 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8293,7 +8308,7 @@
         <v>77</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>77</v>
@@ -8304,10 +8319,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8318,7 +8333,7 @@
         <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>77</v>
@@ -8330,13 +8345,13 @@
         <v>88</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8387,7 +8402,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8402,24 +8417,24 @@
         <v>99</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8433,7 +8448,7 @@
         <v>87</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>77</v>
@@ -8445,13 +8460,13 @@
         <v>152</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8480,10 +8495,10 @@
         <v>156</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>77</v>
@@ -8501,7 +8516,7 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -8516,24 +8531,24 @@
         <v>99</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8642,10 +8657,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8756,10 +8771,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8785,13 +8800,13 @@
         <v>176</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="M63" t="s" s="2">
         <v>178</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>180</v>
@@ -8838,7 +8853,7 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>182</v>
@@ -8870,10 +8885,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8982,10 +8997,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9096,10 +9111,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9212,10 +9227,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9326,10 +9341,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9355,7 +9370,7 @@
         <v>107</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>213</v>
+        <v>331</v>
       </c>
       <c r="M68" t="s" s="2">
         <v>214</v>
@@ -9440,10 +9455,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9554,10 +9569,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9670,13 +9685,13 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D71" t="s" s="2">
         <v>77</v>
@@ -9701,7 +9716,7 @@
         <v>176</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="M71" t="s" s="2">
         <v>178</v>
@@ -9788,10 +9803,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9900,10 +9915,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10014,10 +10029,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10062,7 +10077,7 @@
         <v>77</v>
       </c>
       <c r="S74" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="T74" t="s" s="2">
         <v>77</v>
@@ -10130,10 +10145,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10244,10 +10259,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10255,7 +10270,7 @@
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>87</v>
@@ -10273,7 +10288,7 @@
         <v>107</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>213</v>
+        <v>343</v>
       </c>
       <c r="M76" t="s" s="2">
         <v>214</v>
@@ -10358,10 +10373,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10375,7 +10390,7 @@
         <v>87</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>77</v>
@@ -10387,7 +10402,7 @@
         <v>164</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>221</v>
+        <v>345</v>
       </c>
       <c r="M77" t="s" s="2">
         <v>222</v>
@@ -10472,10 +10487,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10588,13 +10603,13 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="D79" t="s" s="2">
         <v>77</v>
@@ -10619,7 +10634,7 @@
         <v>176</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="M79" t="s" s="2">
         <v>178</v>
@@ -10706,10 +10721,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10818,10 +10833,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10932,10 +10947,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10980,7 +10995,7 @@
         <v>77</v>
       </c>
       <c r="S82" t="s" s="2">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="T82" t="s" s="2">
         <v>77</v>
@@ -11048,10 +11063,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11162,10 +11177,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11191,7 +11206,7 @@
         <v>107</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>213</v>
+        <v>331</v>
       </c>
       <c r="M84" t="s" s="2">
         <v>214</v>
@@ -11276,10 +11291,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11390,10 +11405,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11506,10 +11521,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11520,7 +11535,7 @@
         <v>78</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>77</v>
@@ -11535,16 +11550,16 @@
         <v>164</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>77</v>
@@ -11593,7 +11608,7 @@
         <v>77</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
@@ -11611,21 +11626,21 @@
         <v>77</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -11648,13 +11663,13 @@
         <v>88</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -11705,7 +11720,7 @@
         <v>77</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
@@ -11723,7 +11738,7 @@
         <v>77</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>77</v>
@@ -11734,10 +11749,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -11760,16 +11775,16 @@
         <v>77</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -11819,7 +11834,7 @@
         <v>77</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
@@ -11837,7 +11852,7 @@
         <v>77</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>77</v>
@@ -11848,10 +11863,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -11960,10 +11975,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12074,14 +12089,14 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
@@ -12103,10 +12118,10 @@
         <v>133</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="N92" t="s" s="2">
         <v>136</v>
@@ -12161,7 +12176,7 @@
         <v>77</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
@@ -12190,10 +12205,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12216,17 +12231,17 @@
         <v>77</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>77</v>
@@ -12275,7 +12290,7 @@
         <v>77</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>87</v>
@@ -12293,21 +12308,21 @@
         <v>159</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>378</v>
+        <v>383</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12333,14 +12348,14 @@
         <v>229</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>77</v>
@@ -12389,7 +12404,7 @@
         <v>77</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
@@ -12407,7 +12422,7 @@
         <v>77</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>77</v>
@@ -12418,10 +12433,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -12444,13 +12459,13 @@
         <v>77</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -12501,7 +12516,7 @@
         <v>77</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
@@ -12516,24 +12531,24 @@
         <v>99</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>388</v>
+        <v>393</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -12556,13 +12571,13 @@
         <v>77</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -12613,7 +12628,7 @@
         <v>77</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>78</v>
@@ -12628,10 +12643,10 @@
         <v>99</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>77</v>
@@ -12642,10 +12657,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -12754,10 +12769,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -12868,14 +12883,14 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
@@ -12897,10 +12912,10 @@
         <v>133</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="N99" t="s" s="2">
         <v>136</v>
@@ -12955,7 +12970,7 @@
         <v>77</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>78</v>
@@ -12984,10 +12999,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13013,10 +13028,10 @@
         <v>164</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -13067,7 +13082,7 @@
         <v>77</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>78</v>
@@ -13082,7 +13097,7 @@
         <v>99</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>149</v>
@@ -13091,15 +13106,15 @@
         <v>77</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>399</v>
+        <v>404</v>
       </c>
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -13122,13 +13137,13 @@
         <v>77</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -13179,7 +13194,7 @@
         <v>77</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>78</v>
@@ -13194,16 +13209,16 @@
         <v>99</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>405</v>
+        <v>410</v>
       </c>
     </row>
   </sheetData>
